--- a/biology/Neurosciences/Photosensibilité/Photosensibilité.xlsx
+++ b/biology/Neurosciences/Photosensibilité/Photosensibilité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosensibilit%C3%A9</t>
+          <t>Photosensibilité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La photosensibilité est la propriété de certains matériaux, certaines réactions chimiques ou organes à réagir à la lumière :
 Dans le domaine de la photochimie, la photosensibilité d'une réaction chimique traduit le rôle de la lumière dans son déclenchement ou sa modification ;
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Photosensibilit%C3%A9</t>
+          <t>Photosensibilité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines maladies ou allergies sont déclenchées ou codéclenchées par l'exposition à la lumière naturelle ou artificielle, comme pour la dermatite actinique chronique. Les dermatologues parlent ainsi de photosensibilité rémanente ou de photosensibilité persistante.
 D'autres maladies (par exemple, l'achromatopsie) entraînent une trop forte sensibilité visuelle à la lumière, appelée photophobie.
